--- a/spec/models/DE/Air/EGRVlv/EGRVlv_VDMon/interfaceEGRVlv_VDMon.xlsx
+++ b/spec/models/DE/Air/EGRVlv/EGRVlv_VDMon/interfaceEGRVlv_VDMon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03_SVN\T3\trunk\spec\model\swCore\DE\Air\EGRVlv\EGRVlv_VDMon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\T3\spec\model\swCore\DE\Air\EGRVlv\EGRVlv_VDMon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721BBF1B-85E9-4A95-9B70-1C5D62A97B51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AAE9A2-7701-4F19-88E2-93A6A20607A6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="163">
   <si>
     <t>Name</t>
   </si>
@@ -655,13 +655,77 @@
   </si>
   <si>
     <t>EGRVlv_numJamVlv_C</t>
+  </si>
+  <si>
+    <t>EGRVlv_bJamVlvRlsCheck_mp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set bit 10 of EGRVlv_stMon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGRVlv_numJamVlv_mp</t>
+  </si>
+  <si>
+    <t>The number of jammed valve releasing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGRVlv_stJamVlv_mp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGR_rate_s</t>
+  </si>
+  <si>
+    <t>r/s</t>
+  </si>
+  <si>
+    <t>EGR position gradient to detect deviation fault</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGRVlv_drActDvt_C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGRVlv_drRawFlt</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGR rate gradient calculated over current position after PT1-filtering</t>
+  </si>
+  <si>
+    <t>EGRVlv_drActDvtHi_C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGR position gradient to undetect deviation fault</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGRVlv_facdrActFlt_C</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factor of the PT1 filter</t>
+  </si>
+  <si>
+    <t>PT_fac</t>
+  </si>
+  <si>
+    <t>EGRVlv_drRaw_mp</t>
+  </si>
+  <si>
+    <t>EGR rate gradient calculated over current position</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,6 +812,24 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -904,7 +986,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,12 +1062,35 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1449,18 +1554,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="67.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="67.875" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1489,7 +1594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15">
+    <row r="2" spans="1:8" ht="16.5">
       <c r="A2" s="24" t="s">
         <v>34</v>
       </c>
@@ -1512,7 +1617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15">
+    <row r="3" spans="1:8" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>71</v>
       </c>
@@ -1536,7 +1641,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="24" t="s">
         <v>62</v>
       </c>
@@ -1558,7 +1663,7 @@
       </c>
       <c r="H4" s="24"/>
     </row>
-    <row r="5" spans="1:8" ht="15">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="24" t="s">
         <v>37</v>
       </c>
@@ -1580,7 +1685,7 @@
       </c>
       <c r="H5" s="24"/>
     </row>
-    <row r="6" spans="1:8" ht="15">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="24" t="s">
         <v>38</v>
       </c>
@@ -1602,7 +1707,7 @@
       </c>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="1:8" ht="15">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="24" t="s">
         <v>39</v>
       </c>
@@ -1626,7 +1731,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="24" t="s">
         <v>40</v>
       </c>
@@ -1650,7 +1755,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="24" t="s">
         <v>41</v>
       </c>
@@ -1668,7 +1773,7 @@
       </c>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="1:8" ht="30">
+    <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="24" t="s">
         <v>113</v>
       </c>
@@ -1689,6 +1794,15 @@
         <v>61</v>
       </c>
       <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1698,18 +1812,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1742,7 +1856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="24" t="s">
         <v>110</v>
       </c>
@@ -1768,7 +1882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>42</v>
       </c>
@@ -1793,7 +1907,7 @@
       </c>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:9" ht="30">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="24" t="s">
         <v>82</v>
       </c>
@@ -1817,7 +1931,7 @@
       </c>
       <c r="I4" s="24"/>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="24" t="s">
         <v>55</v>
       </c>
@@ -1841,7 +1955,7 @@
       </c>
       <c r="I5" s="24"/>
     </row>
-    <row r="6" spans="1:9" ht="30">
+    <row r="6" spans="1:9" ht="33">
       <c r="A6" s="24" t="s">
         <v>78</v>
       </c>
@@ -1865,7 +1979,7 @@
       </c>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" spans="1:9" ht="30">
+    <row r="7" spans="1:9" ht="33">
       <c r="A7" s="24" t="s">
         <v>80</v>
       </c>
@@ -1889,6 +2003,58 @@
       </c>
       <c r="I7" s="24"/>
     </row>
+    <row r="8" spans="1:9" s="24" customFormat="1" ht="16.5">
+      <c r="A8" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="24">
+        <v>0</v>
+      </c>
+      <c r="C8" s="24">
+        <v>1</v>
+      </c>
+      <c r="D8" s="24">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5">
+      <c r="A9" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="33">
+        <v>-1000</v>
+      </c>
+      <c r="C9" s="33">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="33">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="33">
+        <v>0</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="24" customFormat="1" ht="16.5"/>
+    <row r="11" spans="1:9" s="24" customFormat="1" ht="16.5"/>
+    <row r="12" spans="1:9" s="24" customFormat="1" ht="16.5"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1898,22 +2064,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="49.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="49.125" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1942,7 +2108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:10" ht="16.5">
       <c r="A2" s="24" t="s">
         <v>76</v>
       </c>
@@ -1967,9 +2133,9 @@
       </c>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:10" ht="16.5">
       <c r="A3" s="24" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="B3" s="28">
         <v>0</v>
@@ -1992,7 +2158,7 @@
       </c>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:10" ht="16.5">
       <c r="A4" s="24" t="s">
         <v>87</v>
       </c>
@@ -2019,7 +2185,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:10" ht="16.5">
       <c r="A5" s="24" t="s">
         <v>115</v>
       </c>
@@ -2043,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="24" t="s">
         <v>117</v>
       </c>
@@ -2067,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:10" ht="16.5">
       <c r="A7" s="24" t="s">
         <v>119</v>
       </c>
@@ -2091,31 +2257,115 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:10" s="24" customFormat="1" ht="16.5">
+      <c r="A8" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="24">
+        <v>0</v>
+      </c>
+      <c r="C8" s="24">
+        <v>1</v>
+      </c>
+      <c r="D8" s="24">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="24" customFormat="1" ht="16.5">
+      <c r="A9" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="24">
+        <v>0</v>
+      </c>
+      <c r="C9" s="24">
+        <v>255</v>
+      </c>
+      <c r="D9" s="24">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5">
+      <c r="A10" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="33">
+        <v>-1000</v>
+      </c>
+      <c r="C10" s="33">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="33">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="33">
+        <v>0</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" s="24" customFormat="1" ht="16.5"/>
+    <row r="12" spans="1:10" s="24" customFormat="1" ht="16.5"/>
+    <row r="13" spans="1:10" s="24" customFormat="1" ht="16.5"/>
+    <row r="14" spans="1:10" s="24" customFormat="1" ht="16.5"/>
+    <row r="15" spans="1:10" s="24" customFormat="1" ht="16.5"/>
+    <row r="16" spans="1:10" s="24" customFormat="1" ht="16.5"/>
+    <row r="17" s="24" customFormat="1" ht="16.5"/>
+    <row r="18" s="24" customFormat="1" ht="16.5"/>
+    <row r="19" s="24" customFormat="1" ht="16.5"/>
+    <row r="20" s="24" customFormat="1" ht="16.5"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD37"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.375" customWidth="1"/>
+    <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="63" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2147,7 +2397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="24" t="s">
         <v>89</v>
       </c>
@@ -2172,7 +2422,7 @@
       </c>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>43</v>
       </c>
@@ -2199,7 +2449,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="24" t="s">
         <v>44</v>
       </c>
@@ -2226,7 +2476,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="24" t="s">
         <v>45</v>
       </c>
@@ -2253,7 +2503,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="24" t="s">
         <v>46</v>
       </c>
@@ -2280,7 +2530,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="24" t="s">
         <v>47</v>
       </c>
@@ -2307,7 +2557,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="24" t="s">
         <v>48</v>
       </c>
@@ -2334,7 +2584,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="24" t="s">
         <v>49</v>
       </c>
@@ -2361,7 +2611,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="24" t="s">
         <v>50</v>
       </c>
@@ -2388,7 +2638,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="24" t="s">
         <v>52</v>
       </c>
@@ -2415,7 +2665,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="24" t="s">
         <v>53</v>
       </c>
@@ -2442,7 +2692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="24" t="s">
         <v>54</v>
       </c>
@@ -2469,7 +2719,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="24" t="s">
         <v>138</v>
       </c>
@@ -2496,7 +2746,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="24" t="s">
         <v>56</v>
       </c>
@@ -2523,7 +2773,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="24" t="s">
         <v>137</v>
       </c>
@@ -2548,7 +2798,7 @@
       </c>
       <c r="I16" s="24"/>
     </row>
-    <row r="17" spans="1:9" ht="30">
+    <row r="17" spans="1:9" ht="33">
       <c r="A17" s="24" t="s">
         <v>57</v>
       </c>
@@ -2575,7 +2825,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30">
+    <row r="18" spans="1:9" ht="33">
       <c r="A18" s="24" t="s">
         <v>58</v>
       </c>
@@ -2602,7 +2852,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="24" t="s">
         <v>121</v>
       </c>
@@ -2627,7 +2877,7 @@
       </c>
       <c r="I19" s="24"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="24" t="s">
         <v>123</v>
       </c>
@@ -2654,7 +2904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="24" t="s">
         <v>125</v>
       </c>
@@ -2681,7 +2931,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="24" t="s">
         <v>127</v>
       </c>
@@ -2708,7 +2958,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="24" t="s">
         <v>129</v>
       </c>
@@ -2735,7 +2985,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="24" t="s">
         <v>131</v>
       </c>
@@ -2762,7 +3012,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="24" t="s">
         <v>133</v>
       </c>
@@ -2789,7 +3039,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="24" t="s">
         <v>135</v>
       </c>
@@ -2816,7 +3066,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="16.5">
       <c r="A27" s="24" t="s">
         <v>144</v>
       </c>
@@ -2839,8 +3089,101 @@
         <v>2</v>
       </c>
     </row>
+    <row r="28" spans="1:9" s="24" customFormat="1" ht="16.5">
+      <c r="A28" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="26">
+        <v>-1000</v>
+      </c>
+      <c r="C28" s="26">
+        <v>1000</v>
+      </c>
+      <c r="D28" s="26">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" s="26">
+        <v>2</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="24" customFormat="1" ht="16.5">
+      <c r="A29" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="26">
+        <v>-1000</v>
+      </c>
+      <c r="C29" s="26">
+        <v>1000</v>
+      </c>
+      <c r="D29" s="26">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="26">
+        <v>4</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5">
+      <c r="A30" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="33">
+        <v>0</v>
+      </c>
+      <c r="C30" s="33">
+        <v>99.998500000000007</v>
+      </c>
+      <c r="D30" s="35">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" s="36">
+        <v>50</v>
+      </c>
+      <c r="I30" s="33"/>
+    </row>
+    <row r="31" spans="1:9" s="24" customFormat="1" ht="16.5"/>
+    <row r="32" spans="1:9" s="24" customFormat="1" ht="16.5"/>
+    <row r="33" s="24" customFormat="1" ht="16.5"/>
+    <row r="34" s="24" customFormat="1" ht="16.5"/>
+    <row r="35" s="24" customFormat="1" ht="16.5"/>
+    <row r="36" s="24" customFormat="1" ht="16.5"/>
+    <row r="37" s="24" customFormat="1" ht="16.5"/>
+    <row r="38" s="24" customFormat="1" ht="16.5"/>
+    <row r="39" s="24" customFormat="1" ht="16.5"/>
+    <row r="40" s="24" customFormat="1" ht="16.5"/>
+    <row r="41" s="24" customFormat="1" ht="16.5"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2854,12 +3197,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2896,10 +3239,10 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="77.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="77.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2908,28 +3251,28 @@
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" ht="16.5">
       <c r="B2" s="24"/>
     </row>
-    <row r="3" spans="1:2" ht="15.6">
+    <row r="3" spans="1:2" ht="16.5">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="25"/>
     </row>
-    <row r="4" spans="1:2" ht="15">
+    <row r="4" spans="1:2" ht="16.5">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="24"/>
     </row>
-    <row r="5" spans="1:2" ht="15">
+    <row r="5" spans="1:2" ht="16.5">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="24"/>
     </row>
-    <row r="6" spans="1:2" ht="15">
+    <row r="6" spans="1:2" ht="16.5">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2949,7 +3292,7 @@
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
@@ -2995,15 +3338,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="53.375" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="4" max="4" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
+    <row r="1" spans="1:4" ht="14.25" thickBot="1">
       <c r="A1" s="17" t="s">
         <v>19</v>
       </c>
@@ -3017,13 +3360,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1">
+    <row r="2" spans="1:4" ht="14.25" thickBot="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1">
+    <row r="3" spans="1:4" ht="14.25" thickBot="1">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -3033,13 +3376,13 @@
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1">
+    <row r="4" spans="1:4" ht="14.25" thickBot="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1">
+    <row r="5" spans="1:4" ht="14.25" thickBot="1">
       <c r="A5" s="13" t="s">
         <v>22</v>
       </c>
@@ -3059,7 +3402,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="9"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
@@ -3098,11 +3441,11 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
